--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Fn1-Sdc2.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Fn1-Sdc2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>25.4697521315928</v>
+        <v>40.75339133333333</v>
       </c>
       <c r="H2">
-        <v>25.4697521315928</v>
+        <v>122.260174</v>
       </c>
       <c r="I2">
-        <v>0.0138903600363933</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="J2">
-        <v>0.0138903600363933</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>85.6006069268781</v>
+        <v>0.6646083333333334</v>
       </c>
       <c r="N2">
-        <v>85.6006069268781</v>
+        <v>1.993825</v>
       </c>
       <c r="O2">
-        <v>0.7160030572717094</v>
+        <v>0.005515555660921567</v>
       </c>
       <c r="P2">
-        <v>0.7160030572717094</v>
+        <v>0.005515555660921567</v>
       </c>
       <c r="Q2">
-        <v>2180.226240741491</v>
+        <v>27.08504349172778</v>
       </c>
       <c r="R2">
-        <v>2180.226240741491</v>
+        <v>243.76539142555</v>
       </c>
       <c r="S2">
-        <v>0.009945540252662373</v>
+        <v>0.0001172903115429975</v>
       </c>
       <c r="T2">
-        <v>0.009945540252662373</v>
+        <v>0.0001172903115429975</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>25.4697521315928</v>
+        <v>40.75339133333333</v>
       </c>
       <c r="H3">
-        <v>25.4697521315928</v>
+        <v>122.260174</v>
       </c>
       <c r="I3">
-        <v>0.0138903600363933</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="J3">
-        <v>0.0138903600363933</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>33.9528028770612</v>
+        <v>85.826024</v>
       </c>
       <c r="N3">
-        <v>33.9528028770612</v>
+        <v>257.478072</v>
       </c>
       <c r="O3">
-        <v>0.2839969427282906</v>
+        <v>0.7122664414292983</v>
       </c>
       <c r="P3">
-        <v>0.2839969427282906</v>
+        <v>0.7122664414292983</v>
       </c>
       <c r="Q3">
-        <v>864.7694734515796</v>
+        <v>3497.701542656059</v>
       </c>
       <c r="R3">
-        <v>864.7694734515796</v>
+        <v>31479.31388390453</v>
       </c>
       <c r="S3">
-        <v>0.003944819783730923</v>
+        <v>0.01514660678864511</v>
       </c>
       <c r="T3">
-        <v>0.003944819783730923</v>
+        <v>0.01514660678864511</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1687.31762033368</v>
+        <v>40.75339133333333</v>
       </c>
       <c r="H4">
-        <v>1687.31762033368</v>
+        <v>122.260174</v>
       </c>
       <c r="I4">
-        <v>0.9202071979771356</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="J4">
-        <v>0.9202071979771356</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>85.6006069268781</v>
+        <v>0.009315666666666667</v>
       </c>
       <c r="N4">
-        <v>85.6006069268781</v>
+        <v>0.027947</v>
       </c>
       <c r="O4">
-        <v>0.7160030572717094</v>
+        <v>7.731031261809587E-05</v>
       </c>
       <c r="P4">
-        <v>0.7160030572717094</v>
+        <v>7.731031261809588E-05</v>
       </c>
       <c r="Q4">
-        <v>144435.4123789787</v>
+        <v>0.3796450091975556</v>
       </c>
       <c r="R4">
-        <v>144435.4123789787</v>
+        <v>3.416805082778</v>
       </c>
       <c r="S4">
-        <v>0.6588711670750622</v>
+        <v>1.644032117508883E-06</v>
       </c>
       <c r="T4">
-        <v>0.6588711670750622</v>
+        <v>1.644032117508884E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -717,57 +717,57 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1687.31762033368</v>
+        <v>40.75339133333333</v>
       </c>
       <c r="H5">
-        <v>1687.31762033368</v>
+        <v>122.260174</v>
       </c>
       <c r="I5">
-        <v>0.9202071979771356</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="J5">
-        <v>0.9202071979771356</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>33.9528028770612</v>
+        <v>33.99712866666667</v>
       </c>
       <c r="N5">
-        <v>33.9528028770612</v>
+        <v>101.991386</v>
       </c>
       <c r="O5">
-        <v>0.2839969427282906</v>
+        <v>0.2821406925971621</v>
       </c>
       <c r="P5">
-        <v>0.2839969427282906</v>
+        <v>0.2821406925971621</v>
       </c>
       <c r="Q5">
-        <v>57289.16255418144</v>
+        <v>1385.498288762352</v>
       </c>
       <c r="R5">
-        <v>57289.16255418144</v>
+        <v>12469.48459886117</v>
       </c>
       <c r="S5">
-        <v>0.2613360309020733</v>
+        <v>0.005999825179562955</v>
       </c>
       <c r="T5">
-        <v>0.2613360309020733</v>
+        <v>0.005999825179562955</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -776,60 +776,60 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>36.3817458793937</v>
+        <v>1689.289306666667</v>
       </c>
       <c r="H6">
-        <v>36.3817458793937</v>
+        <v>5067.86792</v>
       </c>
       <c r="I6">
-        <v>0.01984140035624852</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="J6">
-        <v>0.01984140035624852</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>85.6006069268781</v>
+        <v>0.6646083333333334</v>
       </c>
       <c r="N6">
-        <v>85.6006069268781</v>
+        <v>1.993825</v>
       </c>
       <c r="O6">
-        <v>0.7160030572717094</v>
+        <v>0.005515555660921567</v>
       </c>
       <c r="P6">
-        <v>0.7160030572717094</v>
+        <v>0.005515555660921567</v>
       </c>
       <c r="Q6">
-        <v>3114.299528335547</v>
+        <v>1122.715750621556</v>
       </c>
       <c r="R6">
-        <v>3114.299528335547</v>
+        <v>10104.441755594</v>
       </c>
       <c r="S6">
-        <v>0.01420650331562592</v>
+        <v>0.004861859653459698</v>
       </c>
       <c r="T6">
-        <v>0.01420650331562592</v>
+        <v>0.004861859653459698</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>36.3817458793937</v>
+        <v>1689.289306666667</v>
       </c>
       <c r="H7">
-        <v>36.3817458793937</v>
+        <v>5067.86792</v>
       </c>
       <c r="I7">
-        <v>0.01984140035624852</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="J7">
-        <v>0.01984140035624852</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>33.9528028770612</v>
+        <v>85.826024</v>
       </c>
       <c r="N7">
-        <v>33.9528028770612</v>
+        <v>257.478072</v>
       </c>
       <c r="O7">
-        <v>0.2839969427282906</v>
+        <v>0.7122664414292983</v>
       </c>
       <c r="P7">
-        <v>0.2839969427282906</v>
+        <v>0.7122664414292983</v>
       </c>
       <c r="Q7">
-        <v>1235.262246166388</v>
+        <v>144984.9845769167</v>
       </c>
       <c r="R7">
-        <v>1235.262246166388</v>
+        <v>1304864.86119225</v>
       </c>
       <c r="S7">
-        <v>0.005634897040622594</v>
+        <v>0.6278496106265049</v>
       </c>
       <c r="T7">
-        <v>0.005634897040622594</v>
+        <v>0.6278496106265049</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>84.4588124548977</v>
+        <v>1689.289306666667</v>
       </c>
       <c r="H8">
-        <v>84.4588124548977</v>
+        <v>5067.86792</v>
       </c>
       <c r="I8">
-        <v>0.04606104163022263</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="J8">
-        <v>0.04606104163022263</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>85.6006069268781</v>
+        <v>0.009315666666666667</v>
       </c>
       <c r="N8">
-        <v>85.6006069268781</v>
+        <v>0.027947</v>
       </c>
       <c r="O8">
-        <v>0.7160030572717094</v>
+        <v>7.731031261809587E-05</v>
       </c>
       <c r="P8">
-        <v>0.7160030572717094</v>
+        <v>7.731031261809588E-05</v>
       </c>
       <c r="Q8">
-        <v>7229.725606462614</v>
+        <v>15.73685608447111</v>
       </c>
       <c r="R8">
-        <v>7229.725606462614</v>
+        <v>141.63170476024</v>
       </c>
       <c r="S8">
-        <v>0.03297984662835889</v>
+        <v>6.814760158752056E-05</v>
       </c>
       <c r="T8">
-        <v>0.03297984662835889</v>
+        <v>6.814760158752056E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -965,52 +965,548 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>84.4588124548977</v>
+        <v>1689.289306666667</v>
       </c>
       <c r="H9">
-        <v>84.4588124548977</v>
+        <v>5067.86792</v>
       </c>
       <c r="I9">
-        <v>0.04606104163022263</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="J9">
-        <v>0.04606104163022263</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>33.9528028770612</v>
+        <v>33.99712866666667</v>
       </c>
       <c r="N9">
-        <v>33.9528028770612</v>
+        <v>101.991386</v>
       </c>
       <c r="O9">
-        <v>0.2839969427282906</v>
+        <v>0.2821406925971621</v>
       </c>
       <c r="P9">
-        <v>0.2839969427282906</v>
+        <v>0.2821406925971621</v>
       </c>
       <c r="Q9">
-        <v>2867.613410511823</v>
+        <v>57430.98591397079</v>
       </c>
       <c r="R9">
-        <v>2867.613410511823</v>
+        <v>516878.8732257371</v>
       </c>
       <c r="S9">
-        <v>0.01308119500186374</v>
+        <v>0.2487017690087316</v>
       </c>
       <c r="T9">
-        <v>0.01308119500186374</v>
+        <v>0.2487017690087316</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>100.9654023333333</v>
+      </c>
+      <c r="H10">
+        <v>302.896207</v>
+      </c>
+      <c r="I10">
+        <v>0.05268435816499466</v>
+      </c>
+      <c r="J10">
+        <v>0.05268435816499466</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.6646083333333334</v>
+      </c>
+      <c r="N10">
+        <v>1.993825</v>
+      </c>
+      <c r="O10">
+        <v>0.005515555660921567</v>
+      </c>
+      <c r="P10">
+        <v>0.005515555660921567</v>
+      </c>
+      <c r="Q10">
+        <v>67.10244776908611</v>
+      </c>
+      <c r="R10">
+        <v>603.922029921775</v>
+      </c>
+      <c r="S10">
+        <v>0.0002905835099189557</v>
+      </c>
+      <c r="T10">
+        <v>0.0002905835099189557</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>100.9654023333333</v>
+      </c>
+      <c r="H11">
+        <v>302.896207</v>
+      </c>
+      <c r="I11">
+        <v>0.05268435816499466</v>
+      </c>
+      <c r="J11">
+        <v>0.05268435816499466</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>85.826024</v>
+      </c>
+      <c r="N11">
+        <v>257.478072</v>
+      </c>
+      <c r="O11">
+        <v>0.7122664414292983</v>
+      </c>
+      <c r="P11">
+        <v>0.7122664414292983</v>
+      </c>
+      <c r="Q11">
+        <v>8665.459043830322</v>
+      </c>
+      <c r="R11">
+        <v>77989.1313944729</v>
+      </c>
+      <c r="S11">
+        <v>0.03752530030916734</v>
+      </c>
+      <c r="T11">
+        <v>0.03752530030916734</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>100.9654023333333</v>
+      </c>
+      <c r="H12">
+        <v>302.896207</v>
+      </c>
+      <c r="I12">
+        <v>0.05268435816499466</v>
+      </c>
+      <c r="J12">
+        <v>0.05268435816499466</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.009315666666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.027947</v>
+      </c>
+      <c r="O12">
+        <v>7.731031261809587E-05</v>
+      </c>
+      <c r="P12">
+        <v>7.731031261809588E-05</v>
+      </c>
+      <c r="Q12">
+        <v>0.9405600330032222</v>
+      </c>
+      <c r="R12">
+        <v>8.465040297029001</v>
+      </c>
+      <c r="S12">
+        <v>4.073044199819469E-06</v>
+      </c>
+      <c r="T12">
+        <v>4.073044199819469E-06</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>100.9654023333333</v>
+      </c>
+      <c r="H13">
+        <v>302.896207</v>
+      </c>
+      <c r="I13">
+        <v>0.05268435816499466</v>
+      </c>
+      <c r="J13">
+        <v>0.05268435816499466</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>33.99712866666667</v>
+      </c>
+      <c r="N13">
+        <v>101.991386</v>
+      </c>
+      <c r="O13">
+        <v>0.2821406925971621</v>
+      </c>
+      <c r="P13">
+        <v>0.2821406925971621</v>
+      </c>
+      <c r="Q13">
+        <v>3432.5337740081</v>
+      </c>
+      <c r="R13">
+        <v>30892.8039660729</v>
+      </c>
+      <c r="S13">
+        <v>0.01486440130170854</v>
+      </c>
+      <c r="T13">
+        <v>0.01486440130170854</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>85.41274733333334</v>
+      </c>
+      <c r="H14">
+        <v>256.238242</v>
+      </c>
+      <c r="I14">
+        <v>0.04456888863285297</v>
+      </c>
+      <c r="J14">
+        <v>0.04456888863285297</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.6646083333333334</v>
+      </c>
+      <c r="N14">
+        <v>1.993825</v>
+      </c>
+      <c r="O14">
+        <v>0.005515555660921567</v>
+      </c>
+      <c r="P14">
+        <v>0.005515555660921567</v>
+      </c>
+      <c r="Q14">
+        <v>56.76602365062779</v>
+      </c>
+      <c r="R14">
+        <v>510.89421285565</v>
+      </c>
+      <c r="S14">
+        <v>0.000245822185999915</v>
+      </c>
+      <c r="T14">
+        <v>0.000245822185999915</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>85.41274733333334</v>
+      </c>
+      <c r="H15">
+        <v>256.238242</v>
+      </c>
+      <c r="I15">
+        <v>0.04456888863285297</v>
+      </c>
+      <c r="J15">
+        <v>0.04456888863285297</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>85.826024</v>
+      </c>
+      <c r="N15">
+        <v>257.478072</v>
+      </c>
+      <c r="O15">
+        <v>0.7122664414292983</v>
+      </c>
+      <c r="P15">
+        <v>0.7122664414292983</v>
+      </c>
+      <c r="Q15">
+        <v>7330.636502536604</v>
+      </c>
+      <c r="R15">
+        <v>65975.72852282942</v>
+      </c>
+      <c r="S15">
+        <v>0.03174492370498089</v>
+      </c>
+      <c r="T15">
+        <v>0.03174492370498089</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>85.41274733333334</v>
+      </c>
+      <c r="H16">
+        <v>256.238242</v>
+      </c>
+      <c r="I16">
+        <v>0.04456888863285297</v>
+      </c>
+      <c r="J16">
+        <v>0.04456888863285297</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.009315666666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.027947</v>
+      </c>
+      <c r="O16">
+        <v>7.731031261809587E-05</v>
+      </c>
+      <c r="P16">
+        <v>7.731031261809588E-05</v>
+      </c>
+      <c r="Q16">
+        <v>0.7956766832415556</v>
+      </c>
+      <c r="R16">
+        <v>7.161090149174</v>
+      </c>
+      <c r="S16">
+        <v>3.445634713246962E-06</v>
+      </c>
+      <c r="T16">
+        <v>3.445634713246963E-06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>85.41274733333334</v>
+      </c>
+      <c r="H17">
+        <v>256.238242</v>
+      </c>
+      <c r="I17">
+        <v>0.04456888863285297</v>
+      </c>
+      <c r="J17">
+        <v>0.04456888863285297</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>33.99712866666667</v>
+      </c>
+      <c r="N17">
+        <v>101.991386</v>
+      </c>
+      <c r="O17">
+        <v>0.2821406925971621</v>
+      </c>
+      <c r="P17">
+        <v>0.2821406925971621</v>
+      </c>
+      <c r="Q17">
+        <v>2903.788160864824</v>
+      </c>
+      <c r="R17">
+        <v>26134.09344778342</v>
+      </c>
+      <c r="S17">
+        <v>0.01257469710715892</v>
+      </c>
+      <c r="T17">
+        <v>0.01257469710715892</v>
       </c>
     </row>
   </sheetData>
